--- a/PokudaPriceInspector/PokudaPriceInspector/Doc/機能一覧＆Note.xlsx
+++ b/PokudaPriceInspector/PokudaPriceInspector/Doc/機能一覧＆Note.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12540" windowHeight="2385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12540" windowHeight="2385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Nuget" sheetId="1" r:id="rId1"/>
-    <sheet name="機能一覧" sheetId="2" r:id="rId2"/>
+    <sheet name="実装ログ" sheetId="3" r:id="rId2"/>
+    <sheet name="機能一覧" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>https://qiita.com/yaju/items/97b61d0d8bc3f9ed044d</t>
     <phoneticPr fontId="1"/>
@@ -41,22 +42,7 @@
     <t xml:space="preserve">【要求仕様】: </t>
   </si>
   <si>
-    <t xml:space="preserve">- 対象価格表示 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Amazonで価格検索（当該商品ページを表示） </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - メルカリで価格検索（当該商品ページを表示） </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Autoクロール </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 新着情報の価格差を定期的にクロールしてログ表示 </t>
   </si>
   <si>
     <t>CefSharpはビルドエラーがでるので止め。</t>
@@ -65,12 +51,135 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>CefSharp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">selenium </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンソールアプリでないと動作しない。</t>
+    <rPh sb="12" eb="14">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不採用</t>
+    <rPh sb="0" eb="3">
+      <t>フサイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebBrowser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザのベースが低いのでメルカリのページが表示できていない。</t>
+    <rPh sb="9" eb="10">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gecko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x86, x64の組み込みがうまく行かず断念</t>
+    <rPh sb="9" eb="10">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ダンネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">対象価格表示 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Amazonで価格検索（当該商品ページを表示） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    メルカリで価格検索（当該商品ページを表示） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoクロール </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    新着情報の価格差を定期的にクロールしてログ表示 </t>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Auto購入</t>
+    <rPh sb="4" eb="6">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISBN検索</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　AmazonではISBN-10で絞り込めるが、メルカリでは？</t>
+    <rPh sb="18" eb="19">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格取得</t>
+  </si>
+  <si>
+    <t>着手</t>
+    <rPh sb="0" eb="2">
+      <t>チャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,13 +203,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,15 +230,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -464,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -478,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -498,47 +597,153 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
